--- a/mtcarsxl.xlsx
+++ b/mtcarsxl.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\analytics\projects\pyanalytics\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="sheet3" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -153,8 +148,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -206,16 +201,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -223,14 +212,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -277,7 +258,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -309,10 +290,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -344,7 +324,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -520,18 +499,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="18.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="12" width="6.85546875" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -566,8 +541,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:12">
+      <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B2">
@@ -604,8 +579,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:12">
+      <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B3">
@@ -642,8 +617,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:12">
+      <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B4">
@@ -662,7 +637,7 @@
         <v>3.85</v>
       </c>
       <c r="G4">
-        <v>2.3199999999999998</v>
+        <v>2.32</v>
       </c>
       <c r="H4">
         <v>18.61</v>
@@ -680,8 +655,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:12">
+      <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B5">
@@ -700,10 +675,10 @@
         <v>3.08</v>
       </c>
       <c r="G5">
-        <v>3.2149999999999999</v>
+        <v>3.215</v>
       </c>
       <c r="H5">
-        <v>19.440000000000001</v>
+        <v>19.44</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -718,8 +693,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:12">
+      <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B6">
@@ -756,12 +731,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:12">
+      <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B7">
-        <v>18.100000000000001</v>
+        <v>18.1</v>
       </c>
       <c r="C7">
         <v>6</v>
@@ -794,8 +769,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:12">
+      <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B8">
@@ -832,8 +807,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+    <row r="9" spans="1:12">
+      <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B9">
@@ -843,7 +818,7 @@
         <v>4</v>
       </c>
       <c r="D9">
-        <v>146.69999999999999</v>
+        <v>146.7</v>
       </c>
       <c r="E9">
         <v>62</v>
@@ -870,8 +845,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+    <row r="10" spans="1:12">
+      <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B10">
@@ -881,7 +856,7 @@
         <v>4</v>
       </c>
       <c r="D10">
-        <v>140.80000000000001</v>
+        <v>140.8</v>
       </c>
       <c r="E10">
         <v>95</v>
@@ -908,8 +883,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+    <row r="11" spans="1:12">
+      <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B11">
@@ -946,8 +921,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+    <row r="12" spans="1:12">
+      <c r="A12" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B12">
@@ -969,7 +944,7 @@
         <v>3.44</v>
       </c>
       <c r="H12">
-        <v>18.899999999999999</v>
+        <v>18.9</v>
       </c>
       <c r="I12">
         <v>1</v>
@@ -984,12 +959,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+    <row r="13" spans="1:12">
+      <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B13">
-        <v>16.399999999999999</v>
+        <v>16.4</v>
       </c>
       <c r="C13">
         <v>8</v>
@@ -1007,7 +982,7 @@
         <v>4.07</v>
       </c>
       <c r="H13">
-        <v>17.399999999999999</v>
+        <v>17.4</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -1022,8 +997,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+    <row r="14" spans="1:12">
+      <c r="A14" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B14">
@@ -1045,7 +1020,7 @@
         <v>3.73</v>
       </c>
       <c r="H14">
-        <v>17.600000000000001</v>
+        <v>17.6</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1060,8 +1035,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+    <row r="15" spans="1:12">
+      <c r="A15" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B15">
@@ -1098,8 +1073,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+    <row r="16" spans="1:12">
+      <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B16">
@@ -1136,8 +1111,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+    <row r="17" spans="1:12">
+      <c r="A17" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B17">
@@ -1156,7 +1131,7 @@
         <v>3</v>
       </c>
       <c r="G17">
-        <v>5.4239999999999986</v>
+        <v>5.423999999999999</v>
       </c>
       <c r="H17">
         <v>17.82</v>
@@ -1174,8 +1149,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+    <row r="18" spans="1:12">
+      <c r="A18" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B18">
@@ -1194,10 +1169,10 @@
         <v>3.23</v>
       </c>
       <c r="G18">
-        <v>5.3449999999999998</v>
+        <v>5.345</v>
       </c>
       <c r="H18">
-        <v>17.420000000000002</v>
+        <v>17.42</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1212,8 +1187,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+    <row r="19" spans="1:12">
+      <c r="A19" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B19">
@@ -1232,7 +1207,7 @@
         <v>4.08</v>
       </c>
       <c r="G19">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="H19">
         <v>19.47</v>
@@ -1250,8 +1225,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+    <row r="20" spans="1:12">
+      <c r="A20" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B20">
@@ -1288,8 +1263,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
+    <row r="21" spans="1:12">
+      <c r="A21" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B21">
@@ -1299,7 +1274,7 @@
         <v>4</v>
       </c>
       <c r="D21">
-        <v>71.099999999999994</v>
+        <v>71.09999999999999</v>
       </c>
       <c r="E21">
         <v>65</v>
@@ -1311,7 +1286,7 @@
         <v>1.835</v>
       </c>
       <c r="H21">
-        <v>19.899999999999999</v>
+        <v>19.9</v>
       </c>
       <c r="I21">
         <v>1</v>
@@ -1326,8 +1301,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
+    <row r="22" spans="1:12">
+      <c r="A22" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B22">
@@ -1346,10 +1321,10 @@
         <v>3.7</v>
       </c>
       <c r="G22">
-        <v>2.4649999999999999</v>
+        <v>2.465</v>
       </c>
       <c r="H22">
-        <v>20.010000000000002</v>
+        <v>20.01</v>
       </c>
       <c r="I22">
         <v>1</v>
@@ -1364,8 +1339,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
+    <row r="23" spans="1:12">
+      <c r="A23" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B23">
@@ -1402,8 +1377,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
+    <row r="24" spans="1:12">
+      <c r="A24" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B24">
@@ -1422,7 +1397,7 @@
         <v>3.15</v>
       </c>
       <c r="G24">
-        <v>3.4350000000000001</v>
+        <v>3.435</v>
       </c>
       <c r="H24">
         <v>17.3</v>
@@ -1440,8 +1415,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
+    <row r="25" spans="1:12">
+      <c r="A25" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B25">
@@ -1478,8 +1453,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
+    <row r="26" spans="1:12">
+      <c r="A26" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B26">
@@ -1498,7 +1473,7 @@
         <v>3.08</v>
       </c>
       <c r="G26">
-        <v>3.8450000000000002</v>
+        <v>3.845</v>
       </c>
       <c r="H26">
         <v>17.05</v>
@@ -1516,8 +1491,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
+    <row r="27" spans="1:12">
+      <c r="A27" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B27">
@@ -1536,10 +1511,10 @@
         <v>4.08</v>
       </c>
       <c r="G27">
-        <v>1.9350000000000001</v>
+        <v>1.935</v>
       </c>
       <c r="H27">
-        <v>18.899999999999999</v>
+        <v>18.9</v>
       </c>
       <c r="I27">
         <v>1</v>
@@ -1554,8 +1529,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
+    <row r="28" spans="1:12">
+      <c r="A28" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B28">
@@ -1592,8 +1567,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
+    <row r="29" spans="1:12">
+      <c r="A29" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B29">
@@ -1603,7 +1578,7 @@
         <v>4</v>
       </c>
       <c r="D29">
-        <v>95.1</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="E29">
         <v>113</v>
@@ -1612,10 +1587,10 @@
         <v>3.77</v>
       </c>
       <c r="G29">
-        <v>1.5129999999999999</v>
+        <v>1.513</v>
       </c>
       <c r="H29">
-        <v>16.899999999999999</v>
+        <v>16.9</v>
       </c>
       <c r="I29">
         <v>1</v>
@@ -1630,8 +1605,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
+    <row r="30" spans="1:12">
+      <c r="A30" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B30">
@@ -1668,8 +1643,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
+    <row r="31" spans="1:12">
+      <c r="A31" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B31">
@@ -1706,8 +1681,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
+    <row r="32" spans="1:12">
+      <c r="A32" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B32">
@@ -1744,8 +1719,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
+    <row r="33" spans="1:12">
+      <c r="A33" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B33">
@@ -1761,13 +1736,13 @@
         <v>109</v>
       </c>
       <c r="F33">
-        <v>4.1100000000000003</v>
+        <v>4.11</v>
       </c>
       <c r="G33">
         <v>2.78</v>
       </c>
       <c r="H33">
-        <v>18.600000000000001</v>
+        <v>18.6</v>
       </c>
       <c r="I33">
         <v>1</v>
